--- a/metadata/ENA_sample_checklist.xlsx
+++ b/metadata/ENA_sample_checklist.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="US_sample_checklist" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -235,14 +235,14 @@
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
@@ -250,10 +250,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7"/>
   </cols>
   <sheetData>
